--- a/output-1.xlsx
+++ b/output-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markus.scheuerer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC56B6DB-95FD-430F-970D-1881344C532A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D149C840-8784-4176-9A40-5F107745253E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7518,7 +7518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD1799"/>
     </sheetView>
   </sheetViews>
